--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eholgado\Documents\GitHub\StremliteContractos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B963E-D061-4736-B7E5-85FE7EBBC6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AB0BC4-83DE-4B14-B270-589C5BE0CCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>RUC</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t>DISEÑOS Y CONSTRUCCIONES S.A.S</t>
+  </si>
+  <si>
+    <t>GENUS SVC S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -821,24 +824,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -852,8 +845,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B125" totalsRowShown="0">
-  <autoFilter ref="A1:B125" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B126" totalsRowShown="0">
+  <autoFilter ref="A1:B126" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1179,9 +1172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1720,499 +1715,507 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
+      <c r="A125" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>20601771641</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/ListaRucs.xlsx
+++ b/ListaRucs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eholgado\Documents\GitHub\StremliteContractos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AB0BC4-83DE-4B14-B270-589C5BE0CCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD23D6-6D75-4A89-AC89-042DDE3C105D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{2FB8FF63-2A97-4BBC-A821-5241A1F63A8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>RUC</t>
   </si>
@@ -789,6 +789,9 @@
   </si>
   <si>
     <t>GENUS SVC S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSORCIO JERGO CONTRATISTAS Y CONSULTORES SAC</t>
   </si>
 </sst>
 </file>
@@ -824,9 +827,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,8 +851,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B126" totalsRowShown="0">
-  <autoFilter ref="A1:B126" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}" name="Tabla1" displayName="Tabla1" ref="A1:B127" totalsRowShown="0">
+  <autoFilter ref="A1:B127" xr:uid="{C5BA2685-B410-4623-80E2-7FA47B029E69}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7C1DD435-7312-4292-B94D-21E7A762412C}" name="RUC"/>
     <tableColumn id="2" xr3:uid="{C603F77D-DCCC-4959-8B02-F5149DD2CA1B}" name="Razón Social"/>
@@ -1172,9 +1178,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE53A7-7176-41A5-94D2-50B9ACA98C71}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
@@ -2218,6 +2224,14 @@
         <v>250</v>
       </c>
     </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>20527026238</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C64">
     <sortCondition ref="C1:C64"/>
